--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dhyeypatel/Documents/CIS 4400/HW 1 /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5570525C-39A2-5B43-B968-D3C984FDD26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E9932C-7BFA-1B42-A9EA-391FFFC1413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="3420" windowWidth="28040" windowHeight="17440" xr2:uid="{CB288E99-ED4F-304C-B0EA-43CF146A15AE}"/>
+    <workbookView xWindow="5180" yWindow="3420" windowWidth="28040" windowHeight="20180" xr2:uid="{CB288E99-ED4F-304C-B0EA-43CF146A15AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Column Name</t>
   </si>
@@ -80,21 +80,6 @@
     <t>The LAPD has 21 Community Police Stations referred to as Geographic Areas within the department. These Geographic Areas are sequentially numbered from 1-21.</t>
   </si>
   <si>
-    <t>AREA NAME</t>
-  </si>
-  <si>
-    <t>The 21 Geographic Areas or Patrol Divisions are also given a name designation that references a landmark or the surrounding community that it is responsible for. For example 77th Street Division is located at the intersection of South Broadway and 77th Street, serving neighborhoods in South Los Angeles.</t>
-  </si>
-  <si>
-    <t>Rpt Dist No</t>
-  </si>
-  <si>
-    <t>A four-digit code that represents a sub-area within a Geographic Area. All crime records reference the "RD" that it occurred in for statistical comparisons. Find LAPD Reporting Districts on the LA City GeoHub at http://geohub.lacity.org/datasets/c4f83909b81d4786aa8ba8a74a4b4db1_4</t>
-  </si>
-  <si>
-    <t>Part 1-2</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -110,12 +95,6 @@
     <t>Defines the Crime Code provided.</t>
   </si>
   <si>
-    <t>Mocodes</t>
-  </si>
-  <si>
-    <t>Modus Operandi: Activities associated with the suspect in commission of the crime.See attached PDF for list of MO Codes in numerical order. https://data.lacity.org/api/views/y8tr-7khq/files/3a967fbd-f210-4857-bc52-60230efe256c?download=true&amp;filename=MO%20CODES%20(numerical%20order).pdf</t>
-  </si>
-  <si>
     <t>Vict Age</t>
   </si>
   <si>
@@ -134,18 +113,6 @@
     <t>Descent Code: A - Other Asian B - Black C - Chinese D - Cambodian F - Filipino G - Guamanian H - Hispanic/Latin/Mexican I - American Indian/Alaskan Native J - Japanese K - Korean L - Laotian O - Other P - Pacific Islander S - Samoan U - Hawaiian V - Vietnamese W - White X - Unknown Z - Asian Indian</t>
   </si>
   <si>
-    <t>Premis Cd</t>
-  </si>
-  <si>
-    <t>The type of structure, vehicle, or location where the crime took place.</t>
-  </si>
-  <si>
-    <t>Premis Desc</t>
-  </si>
-  <si>
-    <t>Defines the Premise Code provided.</t>
-  </si>
-  <si>
     <t>Weapon Used Cd</t>
   </si>
   <si>
@@ -158,46 +125,16 @@
     <t>Defines the Weapon Used Code provided.</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Status of the case. (IC is the default)</t>
-  </si>
-  <si>
-    <t>Status Desc</t>
-  </si>
-  <si>
-    <t>Defines the Status Code provided.</t>
-  </si>
-  <si>
     <t>Crm Cd 1</t>
   </si>
   <si>
     <t>Indicates the crime committed. Crime Code 1 is the primary and most serious one. Crime Code 2, 3, and 4 are respectively less serious offenses. Lower crime class numbers are more serious.</t>
   </si>
   <si>
-    <t>Crm Cd 2</t>
-  </si>
-  <si>
-    <t>May contain a code for an additional crime, less serious than Crime Code 1.</t>
-  </si>
-  <si>
-    <t>Crm Cd 3</t>
-  </si>
-  <si>
-    <t>Crm Cd 4</t>
-  </si>
-  <si>
     <t>LOCATION</t>
   </si>
   <si>
     <t>Street address of crime incident rounded to the nearest hundred block to maintain anonymity.</t>
-  </si>
-  <si>
-    <t>Cross Street</t>
-  </si>
-  <si>
-    <t>Cross Street of rounded Address</t>
   </si>
   <si>
     <t>LAT</t>
@@ -216,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,14 +186,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF6A6A6A"/>
@@ -395,11 +324,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -408,13 +336,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,15 +361,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35550F3A-8C16-D54F-AF83-28EEFF76FDA6}">
-  <dimension ref="B3:E31"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -838,70 +762,72 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="2:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="15" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="D10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="D11" s="10" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" ht="72" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="15" t="s">
         <v>25</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>5</v>
@@ -910,34 +836,34 @@
     </row>
     <row r="15" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="36" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" ht="72" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>5</v>
@@ -946,176 +872,28 @@
     </row>
     <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
+      <c r="C19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" ht="36" x14ac:dyDescent="0.2">
-      <c r="B24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B28" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="B31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>19</v>
+      <c r="D19" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="http://geohub.lacity.org/datasets/c4f83909b81d4786aa8ba8a74a4b4db1_4" xr:uid="{814C290C-8C5D-2D42-BA66-D7E611E8ABC1}"/>
-    <hyperlink ref="C14" r:id="rId2" display="https://data.lacity.org/api/views/y8tr-7khq/files/3a967fbd-f210-4857-bc52-60230efe256c?download=true&amp;filename=MO%20CODES%20(numerical%20order).pdf" xr:uid="{FCDB53AD-0FF9-6B43-932B-6250D9820989}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
